--- a/日报/5月份日报.xlsx
+++ b/日报/5月份日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="11940"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>姓名：程童辉</t>
   </si>
@@ -55,10 +55,16 @@
     <t xml:space="preserve"> 周六</t>
   </si>
   <si>
-    <t xml:space="preserve"> 编写大屏代码，安装svn</t>
+    <t xml:space="preserve"> 编写可视化大屏代码，安装svn</t>
   </si>
   <si>
     <t>周一</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 编写可视化大屏</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -66,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -110,14 +116,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,49 +183,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,9 +207,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,39 +238,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,30 +464,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -492,15 +474,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,11 +495,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,8 +505,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +549,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,7 +1057,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1129,12 +1135,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="24.5" customHeight="1" spans="1:2">
+    <row r="6" ht="24.5" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="7">
         <v>44690</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="24.5" customHeight="1"/>

--- a/日报/5月份日报.xlsx
+++ b/日报/5月份日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>姓名：程童辉</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>周二</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 熟悉老项目</t>
   </si>
 </sst>
 </file>
@@ -72,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -102,14 +108,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,13 +138,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -152,19 +159,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,21 +230,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -254,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,16 +470,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,6 +499,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -506,22 +527,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,7 +536,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,16 +586,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,115 +604,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,17 +1063,17 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6296296296296" style="3" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.1296296296296" style="3" customWidth="1"/>
     <col min="5" max="5" width="62.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.8796296296296" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
@@ -1149,7 +1155,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="24.5" customHeight="1"/>
+    <row r="7" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7">
+        <v>44691</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="8" ht="24.5" customHeight="1"/>
     <row r="9" ht="24.5" customHeight="1"/>
     <row r="10" ht="24.5" customHeight="1"/>

--- a/日报/5月份日报.xlsx
+++ b/日报/5月份日报.xlsx
@@ -70,7 +70,7 @@
     <t>周二</t>
   </si>
   <si>
-    <t xml:space="preserve"> 熟悉老项目</t>
+    <t xml:space="preserve"> 熟悉在线申报老项目</t>
   </si>
 </sst>
 </file>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -107,6 +107,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -121,9 +151,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,43 +161,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +223,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -237,15 +238,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,79 +260,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,13 +410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,85 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,36 +465,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,6 +493,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -541,6 +541,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -555,17 +566,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,16 +586,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,15 +604,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,97 +625,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>

--- a/日报/5月份日报.xlsx
+++ b/日报/5月份日报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>姓名：程童辉</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 熟悉在线申报老项目</t>
+  </si>
+  <si>
+    <t>周三</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 编写后台管理项目人员库重构，数据可视化大屏重构</t>
+  </si>
+  <si>
+    <t>周四</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 编写可视化大屏，在线申报，项目库重构，elementui样式覆盖表</t>
   </si>
 </sst>
 </file>
@@ -78,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -107,8 +119,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -116,59 +181,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,14 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -213,32 +241,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,25 +272,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,157 +416,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +481,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -480,6 +527,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,65 +578,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,10 +586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +598,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1075,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1166,8 +1178,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="24.5" customHeight="1"/>
-    <row r="9" ht="24.5" customHeight="1"/>
+    <row r="8" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7">
+        <v>44692</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7">
+        <v>44693</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="10" ht="24.5" customHeight="1"/>
     <row r="11" ht="24.5" customHeight="1"/>
     <row r="12" ht="24.5" customHeight="1"/>

--- a/日报/5月份日报.xlsx
+++ b/日报/5月份日报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>姓名：程童辉</t>
   </si>
@@ -83,6 +83,21 @@
   </si>
   <si>
     <t xml:space="preserve"> 编写可视化大屏，在线申报，项目库重构，elementui样式覆盖表</t>
+  </si>
+  <si>
+    <t>周五</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 编写监管平台，对监管平台代码进行迭代升级。帮助同事解决问题</t>
+  </si>
+  <si>
+    <t>周六</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 值日，编写监管平台项目库代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周四 </t>
   </si>
 </sst>
 </file>
@@ -90,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -120,37 +135,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,9 +156,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,36 +226,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +255,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -241,23 +270,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,187 +287,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,17 +496,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,17 +509,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -546,20 +544,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +584,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -586,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,34 +613,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,97 +646,100 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,8 +1089,8 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1200,12 +1215,60 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="24.5" customHeight="1"/>
-    <row r="11" ht="24.5" customHeight="1"/>
-    <row r="12" ht="24.5" customHeight="1"/>
-    <row r="13" ht="24.5" customHeight="1"/>
-    <row r="14" ht="24.5" customHeight="1"/>
-    <row r="15" ht="24.5" customHeight="1"/>
+    <row r="10" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7">
+        <v>44694</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="7">
+        <v>44695</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="24.5" customHeight="1" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44697</v>
+      </c>
+    </row>
+    <row r="13" ht="24.5" customHeight="1" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="14" ht="24.5" customHeight="1" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="15" ht="24.5" customHeight="1" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="7">
+        <v>44700</v>
+      </c>
+    </row>
     <row r="16" ht="24.5" customHeight="1"/>
     <row r="17" ht="24.5" customHeight="1"/>
     <row r="18" ht="24.5" customHeight="1"/>

--- a/日报/5月份日报.xlsx
+++ b/日报/5月份日报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>姓名：程童辉</t>
   </si>
@@ -97,7 +97,22 @@
     <t xml:space="preserve"> 值日，编写监管平台项目库代码</t>
   </si>
   <si>
+    <t xml:space="preserve"> 监管平台项目库测试，组件封装，整理组件文档</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台项目代码编写，组件封装，整理组件文档</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台首页对接，在线申报代码维护</t>
+  </si>
+  <si>
     <t xml:space="preserve">周四 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台页面样式调整，解决在线申报系统问题，app程序运行调整，解决小程序包过大无法上线问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在线申报系统代码编写</t>
   </si>
 </sst>
 </file>
@@ -105,9 +120,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -135,6 +150,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -143,6 +179,68 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,6 +254,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -163,116 +286,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,6 +302,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,175 +332,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,24 +511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -529,6 +526,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -540,6 +555,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,30 +608,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +628,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,8 +1104,8 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1099,7 +1114,7 @@
     <col min="2" max="2" width="11.6296296296296" style="3" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.1296296296296" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="91.1111111111111" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.8796296296296" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1237,39 +1252,61 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="24.5" customHeight="1" spans="1:2">
+    <row r="12" ht="24.5" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="7">
         <v>44697</v>
       </c>
-    </row>
-    <row r="13" ht="24.5" customHeight="1" spans="1:2">
+      <c r="E12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" ht="24.5" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="7">
         <v>44698</v>
       </c>
-    </row>
-    <row r="14" ht="24.5" customHeight="1" spans="1:2">
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" ht="24.5" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="7">
         <v>44699</v>
       </c>
-    </row>
-    <row r="15" ht="24.5" customHeight="1" spans="1:2">
+      <c r="E14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" ht="25" customHeight="1" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="7">
         <v>44700</v>
       </c>
-    </row>
-    <row r="16" ht="24.5" customHeight="1"/>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="7">
+        <v>44701</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="17" ht="24.5" customHeight="1"/>
     <row r="18" ht="24.5" customHeight="1"/>
     <row r="19" ht="24.5" customHeight="1"/>

--- a/日报/5月份日报.xlsx
+++ b/日报/5月份日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>姓名：程童辉</t>
   </si>
@@ -113,6 +113,21 @@
   </si>
   <si>
     <t xml:space="preserve"> 在线申报系统代码编写</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在线申报系统编写，后台管理系统编写，监管平台代码编写</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在线申报系统数据维护，后台管理系统代码编写</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 后台管理代码优化，维护</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 后台管理，监管平台代码优化，维护；测试监管平台</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 测试监管平台，修改bug</t>
   </si>
 </sst>
 </file>
@@ -149,6 +164,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -157,59 +187,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,29 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -254,6 +255,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -263,6 +271,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -302,6 +317,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,19 +335,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,151 +443,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,24 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -568,6 +565,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -579,6 +585,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,133 +643,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,17 +1120,17 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6296296296296" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6333333333333" style="3" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.1296296296296" style="3" customWidth="1"/>
-    <col min="5" max="5" width="91.1111111111111" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.8796296296296" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.1333333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="91.1083333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.8833333333333" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
@@ -1307,11 +1322,61 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" ht="24.5" customHeight="1"/>
-    <row r="18" ht="24.5" customHeight="1"/>
-    <row r="19" ht="24.5" customHeight="1"/>
-    <row r="20" ht="24.5" customHeight="1"/>
-    <row r="21" ht="24.5" customHeight="1"/>
+    <row r="17" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7">
+        <v>44704</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>44705</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7">
+        <v>44706</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="7">
+        <v>44697</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44708</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="22" ht="24.5" customHeight="1"/>
     <row r="23" ht="24.5" customHeight="1"/>
     <row r="24" ht="24.5" customHeight="1"/>

--- a/日报/5月份日报.xlsx
+++ b/日报/5月份日报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>姓名：程童辉</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 测试监管平台，修改bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台测试，修改bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台测试，修改bug，后台管理页面调优</t>
   </si>
 </sst>
 </file>
@@ -135,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -164,45 +170,68 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,21 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -255,54 +269,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,6 +323,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,7 +377,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,163 +467,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +528,17 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,30 +585,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -615,11 +608,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,16 +649,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,13 +667,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,100 +682,100 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,8 +1125,8 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1377,8 +1383,28 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" ht="24.5" customHeight="1"/>
-    <row r="23" ht="24.5" customHeight="1"/>
+    <row r="22" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="7">
+        <v>44709</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="7">
+        <v>44711</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="24" ht="24.5" customHeight="1"/>
     <row r="25" ht="24.5" customHeight="1"/>
     <row r="26" ht="24.5" customHeight="1"/>

--- a/日报/5月份日报.xlsx
+++ b/日报/5月份日报.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>姓名：程童辉</t>
   </si>
@@ -49,7 +50,8 @@
     <t xml:space="preserve"> 周五</t>
   </si>
   <si>
-    <t xml:space="preserve"> 熟悉后台管理代码，编写机构管理静态页面。查看大屏代码</t>
+    <t xml:space="preserve"> 熟悉后台管理代码，编写机构管理静态页面。
+ 查看大屏代码</t>
   </si>
   <si>
     <t xml:space="preserve"> 周六</t>
@@ -82,13 +84,15 @@
     <t>周四</t>
   </si>
   <si>
-    <t xml:space="preserve"> 编写可视化大屏，在线申报，项目库重构，elementui样式覆盖表</t>
+    <t xml:space="preserve"> 编写可视化大屏，在线申报，
+ 项目库重构，elementui样式覆盖表</t>
   </si>
   <si>
     <t>周五</t>
   </si>
   <si>
-    <t xml:space="preserve"> 编写监管平台，对监管平台代码进行迭代升级。帮助同事解决问题</t>
+    <t xml:space="preserve"> 编写监管平台，对监管平台代码进行迭代升级。
+ 帮助同事解决问题</t>
   </si>
   <si>
     <t>周六</t>
@@ -109,13 +113,15 @@
     <t xml:space="preserve">周四 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 监管平台页面样式调整，解决在线申报系统问题，app程序运行调整，解决小程序包过大无法上线问题</t>
+    <t xml:space="preserve"> 监管平台页面样式调整，解决在线申报系统问题，
+app程序运行调整，解决小程序包过大无法上线问题</t>
   </si>
   <si>
     <t xml:space="preserve"> 在线申报系统代码编写</t>
   </si>
   <si>
-    <t xml:space="preserve"> 在线申报系统编写，后台管理系统编写，监管平台代码编写</t>
+    <t xml:space="preserve"> 在线申报系统编写，后台管理系统编写，
+ 监管平台代码编写</t>
   </si>
   <si>
     <t xml:space="preserve"> 在线申报系统数据维护，后台管理系统代码编写</t>
@@ -134,6 +140,120 @@
   </si>
   <si>
     <t xml:space="preserve"> 监管平台测试，修改bug，后台管理页面调优</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台测试，修改bug，
+ 后台管理页面功能添加、测试、修改</t>
+  </si>
+  <si>
+    <t>6月日报</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台测试，改bug,后台管理平台测试，改bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台测试，改bug,后台管理平台测试，改bug,
+ 山东大屏修改维护</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 后台管理平台人员信息管理前端页面创建与维护</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 后台管理平台项目信息管理前端页面创建与维护，
+ demo页面抽离，组件文档编写（用于快速迭代项目）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 后台管理平台项目信息管理前端页面创建与维护，
+ showTable组件的完善与优化，组件文档编写
+（用于快速迭代项目）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 后台管理平台考勤功能完善，山东大屏修改，
+ showTable组件完善与优化，组件文档编写</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 值班，山东监管平台大屏整改迁移</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 周一</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 山东大屏加急整改，监管平台大屏调整，
+ 监管平台的挂参登录，大屏测试，维护
+ 帮同事寻找申报系统问题，并解决
+ 监管平台大屏首页静态转动态</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台大屏：视频监控调整
+ 监管平台地址切换功能页面重写
+ 监管平台设备管理功能模块修正
+ 监管平台项目库功能页面修正</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台大屏：视频监控调整
+ 监管平台大屏：深基坑接口调试，bug修正
+ 手机app代码测试，修改
+ OMS地图坐标检索
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 手机app工程监管测试，
+ 申报系统上传功能重写，替换flash插件
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 申报系统文件上传功能完善
+ 监管平台大屏AI监控调整
+ 监管平台项目库展示信息增加
+ OMS项目管理添加地标拾取功能
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 开会交流肥东监管平台项目信息
+ 监管平台项目库页面调整
+ OMS平台项目管理模块调整</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 帮助同事解决申报系统问题
+ OMS新增企业信用
+ OMS新增机构管理
+ 套壳大屏修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 演示套壳大屏代码疯狂修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 山东大屏修改，
+ 小程序调优
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 帮同事解决申报系统问题
+ OMS平台企业信用管理对接
+ OMS平台机构管理表格数据对接</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OMS新增岗位管理
+ OMS完成机构管理页面功能
+ 帮助同事解决申报系统问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OMS机构管理增删改查
+ OMS机构岗位增删改查
+ OMS机构用户增删改查
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在线申报系统文件上传更改
+ OMS机构用户底下新增用户限制，岗位管理
+ OMS机构管理基本功能暂时完结
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 帮助同事解决在线申报系统问题
+ 解决在线申报系统企业管理级联选问题
+ 历下大屏修改，添加弹幕式滚动新闻
+</t>
   </si>
 </sst>
 </file>
@@ -141,12 +261,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +290,129 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,133 +427,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -323,19 +449,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,163 +623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,17 +654,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,8 +700,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,23 +739,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,16 +775,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,10 +796,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,98 +814,98 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,20 +915,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1122,21 +1257,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6333333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.1333333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="91.1083333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.8833333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.6333333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="49.75" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
@@ -1172,240 +1309,250 @@
       </c>
     </row>
     <row r="3" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>44686</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="41" customHeight="1" spans="1:5">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>44687</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>44688</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>44690</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>44691</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>44692</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
+    <row r="9" ht="43" customHeight="1" spans="1:5">
+      <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>44693</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
+    <row r="10" ht="39" customHeight="1" spans="1:5">
+      <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>44694</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>44695</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>44697</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>44698</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>44699</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" ht="25" customHeight="1" spans="1:5">
-      <c r="A15" s="3" t="s">
+    <row r="15" ht="52" customHeight="1" spans="1:5">
+      <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>44700</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>44701</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A17" s="3" t="s">
+    <row r="17" ht="43" customHeight="1" spans="1:5">
+      <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>44704</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>44705</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>44706</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="8">
         <v>44697</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>44708</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="8">
         <v>44709</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>44711</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" ht="24.5" customHeight="1"/>
+    <row r="24" ht="40" customHeight="1" spans="1:5">
+      <c r="A24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="8">
+        <v>44712</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="25" ht="24.5" customHeight="1"/>
     <row r="26" ht="24.5" customHeight="1"/>
     <row r="27" ht="24.5" customHeight="1"/>
@@ -1429,6 +1576,453 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="11.925" style="3" customWidth="1"/>
+    <col min="3" max="4" width="11.925" customWidth="1"/>
+    <col min="5" max="5" width="49.125" customWidth="1"/>
+    <col min="6" max="6" width="11.925" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="54" customHeight="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="24.5" customHeight="1" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8">
+        <v>44713</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" ht="24.5" customHeight="1" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8">
+        <v>44714</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" ht="41" customHeight="1" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8">
+        <v>44718</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" ht="24.5" customHeight="1" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8">
+        <v>44719</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" ht="42" customHeight="1" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8">
+        <v>44720</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" ht="52" customHeight="1" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8">
+        <v>44721</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" ht="46" customHeight="1" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8">
+        <v>44722</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" ht="24.5" customHeight="1" spans="1:6">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8">
+        <v>44723</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" ht="72" customHeight="1" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="8">
+        <v>44725</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" ht="64" customHeight="1" spans="1:6">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>44726</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" ht="64" customHeight="1" spans="1:6">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8">
+        <v>44727</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" ht="42" customHeight="1" spans="1:6">
+      <c r="A15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8">
+        <v>44728</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" ht="61" customHeight="1" spans="1:6">
+      <c r="A16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="8">
+        <v>44729</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" ht="53" customHeight="1" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="8">
+        <v>44730</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" ht="67" customHeight="1" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8">
+        <v>44732</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" ht="24.5" customHeight="1" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8">
+        <v>44733</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" ht="31" customHeight="1" spans="1:6">
+      <c r="A20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
+        <v>44734</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" ht="49" customHeight="1" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="8">
+        <v>44735</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" ht="48" customHeight="1" spans="1:6">
+      <c r="A22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="8">
+        <v>44736</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" ht="51" customHeight="1" spans="1:6">
+      <c r="A23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="8">
+        <v>44739</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" ht="47" customHeight="1" spans="1:6">
+      <c r="A24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="8">
+        <v>44740</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" ht="51" customHeight="1" spans="1:6">
+      <c r="A25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="8">
+        <v>44741</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" ht="24.5" customHeight="1" spans="1:6">
+      <c r="A26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="8">
+        <v>44742</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" ht="24.5" customHeight="1" spans="1:6">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" ht="24.5" customHeight="1" spans="1:6">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" ht="24.5" customHeight="1" spans="1:6">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" ht="24.5" customHeight="1" spans="1:6">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" ht="24.5" customHeight="1" spans="1:6">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" ht="24.5" customHeight="1" spans="1:6">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" ht="24.5" customHeight="1" spans="1:6">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/日报/5月份日报.xlsx
+++ b/日报/5月份日报.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
   <si>
     <t>姓名：程童辉</t>
   </si>
@@ -254,6 +255,126 @@
  解决在线申报系统企业管理级联选问题
  历下大屏修改，添加弹幕式滚动新闻
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OMS设备管理，设备监测功能
+ 历下大屏修改
+ </t>
+  </si>
+  <si>
+    <t>7月日报</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 历下大屏修改
+ 监管平台新增：
+   安全生产许可证、职称人员、特种作业人员</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台行政管理
+ 机构部门、机构部门用户新增功能页面
+ OMS安全证书管理
+ 编写统一的文件上传组件
+ 山东历下大屏修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台行政管理对接
+ 企业登录安全管理证书功能对接</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 企业登录安全管理证书对接
+ 监管平台企业库证书管理改造
+ upload组件维护升级
+ 企业管理-事中事后检查部分页面设计，完成部分功能</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 历下大屏项目位置修改
+ 监管平台事中事后检查功能完成
+ 监管平台新增农名工维权功能
+ 监管平台新增肥东信用管理功能</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台信用管理新增功能</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台样式统一微调，
+ 肥东监管平台bug修正，
+ 信用管理对接完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 值班</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台事中事后检查功能对接</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台各类文件分管预览
+ 中后台模板搭建</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中后台模板搭建
+ 监管平台登录修改
+ 监管平台行政处罚bug修改，页面调整</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台事中事后检查新增类型检查
+ 取消检查功能
+ 修改页面展示数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台事中事后检查功能完善
+ OMS新增工程监管
+ OMS新增检查项
+ 修正OMS岗位管理bug
+ OMS系统管理下的人员管理修改
+ OMS系统管理下的角色管理修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 加班：肥东县监管项目上线</t>
+  </si>
+  <si>
+    <t>周日</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 加班到凌晨1点半：肥东监管项目上线</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台App端项目管理页面重构</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台App端项目管理
+   页面bug修正，页面优化，代码统一</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台App端
+   文件分管预览
+   视频在线观看（多端兼容）
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台App端，多端兼容问题处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台大屏对接真实数据
+ App兼容小程序
+ 画静态大屏-构建实时监测
+ 发布微信小程序体验版
+ 打包监管平台apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 肥东监管平台测试，调整
+ 小程序申请发布，申请失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台小程序登录微调
+ 小程序申请发布，申请成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 监管平台大屏修改
+   新增安全教育测试数据
+   修改登录跳转页面</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 尝试webpack打包历下前端项目</t>
   </si>
 </sst>
 </file>
@@ -275,6 +396,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -287,12 +414,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -905,26 +1026,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1268,288 +1395,288 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.6333333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="49.75" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.6333333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="49.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="7" customFormat="1" ht="41" customHeight="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" s="8" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="10">
         <v>44686</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="41" customHeight="1" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>44687</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>44688</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>44690</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>44691</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="10">
         <v>44692</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="10">
         <v>44693</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:5">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="10">
         <v>44694</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="10">
         <v>44695</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="10">
         <v>44697</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="10">
         <v>44698</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="10">
         <v>44699</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" ht="52" customHeight="1" spans="1:5">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="10">
         <v>44700</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="10">
         <v>44701</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" ht="43" customHeight="1" spans="1:5">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="10">
         <v>44704</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="10">
         <v>44705</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="10">
         <v>44706</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="10">
         <v>44697</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="10">
         <v>44708</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="10">
         <v>44709</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="10">
         <v>44711</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" ht="40" customHeight="1" spans="1:5">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="10">
         <v>44712</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1586,434 +1713,436 @@
   <sheetPr/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="11.925" style="3" customWidth="1"/>
+    <col min="1" max="2" width="11.925" style="1" customWidth="1"/>
     <col min="3" max="4" width="11.925" customWidth="1"/>
     <col min="5" max="5" width="49.125" customWidth="1"/>
     <col min="6" max="6" width="11.925" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="54" customHeight="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" s="7" customFormat="1" ht="41" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>44713</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>44714</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" ht="41" customHeight="1" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>44718</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>44719</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="10">
         <v>44720</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" ht="52" customHeight="1" spans="1:6">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="10">
         <v>44721</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" ht="46" customHeight="1" spans="1:6">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="10">
         <v>44722</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="10">
         <v>44723</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" ht="72" customHeight="1" spans="1:6">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="10">
         <v>44725</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" ht="64" customHeight="1" spans="1:6">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="10">
         <v>44726</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" ht="64" customHeight="1" spans="1:6">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="10">
         <v>44727</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:6">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="10">
         <v>44728</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" ht="61" customHeight="1" spans="1:6">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="10">
         <v>44729</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" ht="53" customHeight="1" spans="1:6">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="10">
         <v>44730</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" ht="67" customHeight="1" spans="1:6">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="10">
         <v>44732</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="10">
         <v>44733</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" ht="31" customHeight="1" spans="1:6">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="10">
         <v>44734</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" ht="49" customHeight="1" spans="1:6">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="10">
         <v>44735</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" ht="48" customHeight="1" spans="1:6">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="10">
         <v>44736</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" ht="51" customHeight="1" spans="1:6">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="10">
         <v>44739</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" ht="47" customHeight="1" spans="1:6">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="10">
         <v>44740</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" ht="51" customHeight="1" spans="1:6">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="10">
         <v>44741</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A26" s="7" t="s">
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" ht="39" customHeight="1" spans="1:6">
+      <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="10">
         <v>44742</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2025,4 +2154,363 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="11.925" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.925" customWidth="1"/>
+    <col min="5" max="5" width="49.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="54" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="41" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" ht="36" customHeight="1" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="46" customHeight="1" spans="1:5">
+      <c r="A4" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" ht="71" customHeight="1" spans="1:5">
+      <c r="A5" s="5">
+        <v>44744</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" ht="35" customHeight="1" spans="1:5">
+      <c r="A6" s="5">
+        <v>44746</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" ht="54" customHeight="1" spans="1:5">
+      <c r="A7" s="5">
+        <v>44747</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" ht="57" customHeight="1" spans="1:5">
+      <c r="A8" s="5">
+        <v>44748</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A9" s="5">
+        <v>44749</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" ht="44" customHeight="1" spans="1:5">
+      <c r="A10" s="5">
+        <v>44750</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A11" s="5">
+        <v>44751</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A12" s="5">
+        <v>44753</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" ht="35" customHeight="1" spans="1:5">
+      <c r="A13" s="5">
+        <v>44754</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" ht="45" customHeight="1" spans="1:5">
+      <c r="A14" s="5">
+        <v>44755</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" ht="47" customHeight="1" spans="1:5">
+      <c r="A15" s="5">
+        <v>44756</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" ht="83" customHeight="1" spans="1:5">
+      <c r="A16" s="5">
+        <v>44757</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A17" s="5">
+        <v>44758</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A18" s="5">
+        <v>44759</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A19" s="5">
+        <v>44760</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" ht="35" customHeight="1" spans="1:5">
+      <c r="A20" s="5">
+        <v>44761</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" ht="42" customHeight="1" spans="1:5">
+      <c r="A21" s="5">
+        <v>44762</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A22" s="5">
+        <v>44763</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" ht="75" customHeight="1" spans="1:5">
+      <c r="A23" s="5">
+        <v>44764</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A24" s="5">
+        <v>44765</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A25" s="5">
+        <v>44766</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" ht="36" customHeight="1" spans="1:5">
+      <c r="A26" s="5">
+        <v>44767</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" ht="42" customHeight="1" spans="1:5">
+      <c r="A27" s="5">
+        <v>44768</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" ht="48" customHeight="1" spans="1:5">
+      <c r="A28" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A29" s="5">
+        <v>44770</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" ht="24.5" customHeight="1"/>
+    <row r="31" ht="24.5" customHeight="1"/>
+    <row r="32" ht="24.5" customHeight="1"/>
+    <row r="33" ht="24.5" customHeight="1"/>
+    <row r="34" ht="24.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/日报/5月份日报.xlsx
+++ b/日报/5月份日报.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
   <si>
     <t>姓名：程童辉</t>
   </si>
@@ -375,6 +376,42 @@
   </si>
   <si>
     <t xml:space="preserve"> 尝试webpack打包历下前端项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 尝试webpack打包历下前端项目
+ 监管平台app UI选型
+ 历下大屏admin账号权限控制
+ 测试肥东项目管理小程序功能并发布体验版</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 迁移小程序
+ 尝试webpack打包
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 大屏新增与修改
+ 微信小程序需求需改、审核发布</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 历下大屏mock大屏摄像头数据
+ 中建六局大屏加急完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中建六局大屏添加数据，修改样式
+ 安全教育项目添加飘窗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 飘窗效果制作（安徽省建设行业质量与安全协会）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OMS项目列表修改bug修改
+ 小程序IOS文件预览兼容处理
+ 历下套壳大屏数据整理调整</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 小程序多文件预览IOS与安卓兼容处理
+ 历下大屏需求更改
+ 监管平台大屏添加权限</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1063,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,6 +1081,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1395,15 +1435,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.6333333333333" style="9" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="49.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.6333333333333" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="49.75" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="41" customHeight="1" spans="1:6">
+    <row r="1" s="8" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +1455,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" s="8" customFormat="1" ht="36" customHeight="1" spans="1:6">
+    <row r="2" s="9" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1436,247 +1476,247 @@
       </c>
     </row>
     <row r="3" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>44686</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="41" customHeight="1" spans="1:5">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>44687</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>44688</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>44690</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>44691</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>44692</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>44693</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:5">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>44694</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>44695</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="11">
         <v>44697</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="11">
         <v>44698</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="11">
         <v>44699</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" ht="52" customHeight="1" spans="1:5">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="11">
         <v>44700</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <v>44701</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" ht="43" customHeight="1" spans="1:5">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="11">
         <v>44704</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="11">
         <v>44705</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="11">
         <v>44706</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="11">
         <v>44697</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="11">
         <v>44708</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="11">
         <v>44709</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="11">
         <v>44711</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" ht="40" customHeight="1" spans="1:5">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="11">
         <v>44712</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1734,7 +1774,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" s="7" customFormat="1" ht="41" customHeight="1" spans="1:6">
+    <row r="2" s="8" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1746,7 +1786,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" s="8" customFormat="1" ht="36" customHeight="1" spans="1:6">
+    <row r="3" s="9" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1767,382 +1807,382 @@
       </c>
     </row>
     <row r="4" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>44713</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>44714</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" ht="41" customHeight="1" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>44718</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>44719</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>44720</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" ht="52" customHeight="1" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>44721</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" ht="46" customHeight="1" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>44722</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>44723</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" ht="72" customHeight="1" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="11">
         <v>44725</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" ht="64" customHeight="1" spans="1:6">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="11">
         <v>44726</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" ht="64" customHeight="1" spans="1:6">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="11">
         <v>44727</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:6">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="11">
         <v>44728</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" ht="61" customHeight="1" spans="1:6">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <v>44729</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" ht="53" customHeight="1" spans="1:6">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="11">
         <v>44730</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" ht="67" customHeight="1" spans="1:6">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="11">
         <v>44732</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="11">
         <v>44733</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" ht="31" customHeight="1" spans="1:6">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="11">
         <v>44734</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" ht="49" customHeight="1" spans="1:6">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="11">
         <v>44735</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" ht="48" customHeight="1" spans="1:6">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="11">
         <v>44736</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" ht="51" customHeight="1" spans="1:6">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="11">
         <v>44739</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" ht="47" customHeight="1" spans="1:6">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="11">
         <v>44740</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" ht="51" customHeight="1" spans="1:6">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="11">
         <v>44741</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" ht="39" customHeight="1" spans="1:6">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="11">
         <v>44742</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2161,8 +2201,8 @@
   <sheetPr/>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2499,7 +2539,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" ht="24.5" customHeight="1"/>
+    <row r="30" ht="65" customHeight="1" spans="1:5">
+      <c r="A30" s="5">
+        <v>44771</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="31" ht="24.5" customHeight="1"/>
     <row r="32" ht="24.5" customHeight="1"/>
     <row r="33" ht="24.5" customHeight="1"/>
@@ -2513,4 +2563,170 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="11.925" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.925" customWidth="1"/>
+    <col min="5" max="5" width="49.125" customWidth="1"/>
+    <col min="6" max="6" width="11.925" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="54" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="41" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" ht="36" customHeight="1" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="31" customHeight="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5">
+        <v>44774</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" ht="36" customHeight="1" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44775</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44776</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" ht="36" customHeight="1" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44777</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" ht="24.5" customHeight="1" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44778</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" ht="46" customHeight="1" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44781</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" ht="45" customHeight="1" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44782</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" ht="24.5" customHeight="1"/>
+    <row r="12" ht="24.5" customHeight="1"/>
+    <row r="13" ht="24.5" customHeight="1"/>
+    <row r="14" ht="24.5" customHeight="1"/>
+    <row r="15" ht="24.5" customHeight="1"/>
+    <row r="16" ht="24.5" customHeight="1"/>
+    <row r="17" ht="24.5" customHeight="1"/>
+    <row r="18" ht="24.5" customHeight="1"/>
+    <row r="19" ht="24.5" customHeight="1"/>
+    <row r="20" ht="24.5" customHeight="1"/>
+    <row r="21" ht="24.5" customHeight="1"/>
+    <row r="22" ht="24.5" customHeight="1"/>
+    <row r="23" ht="24.5" customHeight="1"/>
+    <row r="24" ht="24.5" customHeight="1"/>
+    <row r="25" ht="24.5" customHeight="1"/>
+    <row r="26" ht="24.5" customHeight="1"/>
+    <row r="27" ht="24.5" customHeight="1"/>
+    <row r="28" ht="24.5" customHeight="1"/>
+    <row r="29" ht="24.5" customHeight="1"/>
+    <row r="30" ht="24.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/日报/5月份日报.xlsx
+++ b/日报/5月份日报.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
   <si>
     <t>姓名：程童辉</t>
   </si>
@@ -384,8 +384,12 @@
  测试肥东项目管理小程序功能并发布体验版</t>
   </si>
   <si>
-    <t xml:space="preserve"> 迁移小程序
- 尝试webpack打包
+    <t>9月日报</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 套壳大屏新闻查询接口
+ 质量报验
+ 维保
  </t>
   </si>
   <si>
@@ -1063,7 +1067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,9 +1085,6 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1435,15 +1436,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.6333333333333" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="49.75" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.6333333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="49.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="41" customHeight="1" spans="1:6">
+    <row r="1" s="7" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1456,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" s="9" customFormat="1" ht="36" customHeight="1" spans="1:6">
+    <row r="2" s="8" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1476,247 +1477,247 @@
       </c>
     </row>
     <row r="3" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>44686</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="41" customHeight="1" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>44687</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>44688</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>44690</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>44691</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>44692</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>44693</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:5">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>44694</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>44695</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>44697</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>44698</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>44699</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" ht="52" customHeight="1" spans="1:5">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>44700</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>44701</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" ht="43" customHeight="1" spans="1:5">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>44704</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>44705</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>44706</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>44697</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>44708</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>44709</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" ht="24.5" customHeight="1" spans="1:5">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>44711</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" ht="40" customHeight="1" spans="1:5">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>44712</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1774,7 +1775,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" s="8" customFormat="1" ht="41" customHeight="1" spans="1:6">
+    <row r="2" s="7" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1787,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="36" customHeight="1" spans="1:6">
+    <row r="3" s="8" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1807,382 +1808,382 @@
       </c>
     </row>
     <row r="4" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>44713</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>44714</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" ht="41" customHeight="1" spans="1:6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>44718</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>44719</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:6">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>44720</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" ht="52" customHeight="1" spans="1:6">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>44721</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" ht="46" customHeight="1" spans="1:6">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>44722</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>44723</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" ht="72" customHeight="1" spans="1:6">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>44725</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" ht="64" customHeight="1" spans="1:6">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>44726</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" ht="64" customHeight="1" spans="1:6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>44727</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:6">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>44728</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" ht="61" customHeight="1" spans="1:6">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>44729</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" ht="53" customHeight="1" spans="1:6">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>44730</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" ht="67" customHeight="1" spans="1:6">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>44732</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>44733</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" ht="31" customHeight="1" spans="1:6">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>44734</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" ht="49" customHeight="1" spans="1:6">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>44735</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" ht="48" customHeight="1" spans="1:6">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>44736</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" ht="51" customHeight="1" spans="1:6">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>44739</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" ht="47" customHeight="1" spans="1:6">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>44740</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="12"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" ht="51" customHeight="1" spans="1:6">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>44741</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" ht="39" customHeight="1" spans="1:6">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>44742</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="12"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" ht="24.5" customHeight="1" spans="1:6">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2571,7 +2572,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2584,7 +2585,7 @@
   <sheetData>
     <row r="1" ht="54" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2623,15 +2624,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="31" customHeight="1" spans="1:5">
+    <row r="4" ht="52" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5">
-        <v>44774</v>
+        <v>44813</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:5">
@@ -2642,7 +2643,7 @@
         <v>44775</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:5">
@@ -2653,7 +2654,7 @@
         <v>44776</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:5">
@@ -2664,7 +2665,7 @@
         <v>44777</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="24.5" customHeight="1" spans="1:5">
@@ -2675,7 +2676,7 @@
         <v>44778</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" ht="46" customHeight="1" spans="1:5">
@@ -2686,7 +2687,7 @@
         <v>44781</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:5">
@@ -2696,8 +2697,8 @@
       <c r="B10" s="5">
         <v>44782</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>98</v>
+      <c r="E10" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" ht="24.5" customHeight="1"/>
